--- a/docs/Cronograma.xlsx
+++ b/docs/Cronograma.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Alonzo Plc\Documents\GitHub\P3-Web\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="15660"/>
   </bookViews>
@@ -89,7 +94,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,8 +105,16 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Cambria"/>
       <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="5">
@@ -159,15 +172,15 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,6 +242,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -276,7 +292,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,7 +327,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,247 +538,247 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:25" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>43971</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>43972</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="2">
         <v>43973</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="2">
         <v>43974</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="2">
         <v>43975</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>43976</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="2">
         <v>43977</v>
       </c>
-      <c r="K2" s="4">
+      <c r="K2" s="2">
         <v>43978</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <v>43979</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>43980</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="2">
         <v>43981</v>
       </c>
-      <c r="O2" s="4">
+      <c r="O2" s="2">
         <v>43982</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="2">
         <v>43983</v>
       </c>
-      <c r="Q2" s="4">
+      <c r="Q2" s="2">
         <v>43984</v>
       </c>
-      <c r="R2" s="4">
+      <c r="R2" s="2">
         <v>43985</v>
       </c>
-      <c r="S2" s="4">
+      <c r="S2" s="2">
         <v>43986</v>
       </c>
-      <c r="T2" s="4">
+      <c r="T2" s="2">
         <v>43987</v>
       </c>
-      <c r="U2" s="4">
+      <c r="U2" s="2">
         <v>43988</v>
       </c>
-      <c r="V2" s="4">
+      <c r="V2" s="2">
         <v>43989</v>
       </c>
-      <c r="W2" s="4">
+      <c r="W2" s="2">
         <v>43990</v>
       </c>
-      <c r="X2" s="4">
+      <c r="X2" s="2">
         <v>43991</v>
       </c>
-      <c r="Y2" s="4">
+      <c r="Y2" s="2">
         <v>43992</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
     </row>
     <row r="4" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
     </row>
     <row r="5" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="3"/>
+      <c r="V5" s="3"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
     </row>
     <row r="6" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
     </row>
     <row r="7" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -774,74 +790,74 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="3"/>
     </row>
     <row r="8" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+      <c r="T8" s="3"/>
+      <c r="U8" s="3"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="1"/>
+      <c r="Y8" s="3"/>
     </row>
     <row r="9" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="3"/>
+      <c r="V9" s="3"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
       <c r="Y9" s="5"/>
     </row>
   </sheetData>

--- a/docs/Cronograma.xlsx
+++ b/docs/Cronograma.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johan Alonzo Plc\Documents\GitHub\P3-Web\docs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="90" windowWidth="28515" windowHeight="15660"/>
   </bookViews>
@@ -66,12 +61,6 @@
     <t xml:space="preserve">        28/05/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">         10/06/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         07/06/2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">         09/06/2020</t>
   </si>
   <si>
@@ -81,20 +70,26 @@
     <t xml:space="preserve">         26/05/2020</t>
   </si>
   <si>
-    <t xml:space="preserve">        07/06/2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">        10/06/2020</t>
-  </si>
-  <si>
     <t>Analisis de requisitos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        09/06/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         11/06/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        12/06/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         12/06/2020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,19 +100,11 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
-      <name val="Cambria"/>
+      <name val="Times New Roman"/>
       <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +126,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -170,17 +163,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -242,9 +236,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -292,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -327,7 +318,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -536,249 +527,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:Y9"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:25" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:27" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="4">
         <v>43971</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="4">
         <v>43972</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="4">
         <v>43973</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="4">
         <v>43974</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="4">
         <v>43975</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <v>43976</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="4">
         <v>43977</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="4">
         <v>43978</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="4">
         <v>43979</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="4">
         <v>43980</v>
       </c>
-      <c r="N2" s="2">
+      <c r="N2" s="4">
         <v>43981</v>
       </c>
-      <c r="O2" s="2">
+      <c r="O2" s="4">
         <v>43982</v>
       </c>
-      <c r="P2" s="2">
+      <c r="P2" s="4">
         <v>43983</v>
       </c>
-      <c r="Q2" s="2">
+      <c r="Q2" s="4">
         <v>43984</v>
       </c>
-      <c r="R2" s="2">
+      <c r="R2" s="4">
         <v>43985</v>
       </c>
-      <c r="S2" s="2">
+      <c r="S2" s="4">
         <v>43986</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="4">
         <v>43987</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="4">
         <v>43988</v>
       </c>
-      <c r="V2" s="2">
+      <c r="V2" s="4">
         <v>43989</v>
       </c>
-      <c r="W2" s="2">
+      <c r="W2" s="4">
         <v>43990</v>
       </c>
-      <c r="X2" s="2">
+      <c r="X2" s="4">
         <v>43991</v>
       </c>
-      <c r="Y2" s="2">
+      <c r="Y2" s="4">
         <v>43992</v>
       </c>
+      <c r="Z2" s="4">
+        <v>43993</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>43994</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
+    <row r="3" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
-      <c r="V3" s="3"/>
-      <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
     </row>
-    <row r="4" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
     </row>
-    <row r="5" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="3"/>
-      <c r="V5" s="3"/>
-      <c r="W5" s="3"/>
-      <c r="X5" s="3"/>
-      <c r="Y5" s="3"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
     </row>
-    <row r="6" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
     </row>
-    <row r="7" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -790,75 +795,81 @@
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="3"/>
-      <c r="X7" s="3"/>
-      <c r="Y7" s="3"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
     </row>
-    <row r="8" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
       <c r="X8" s="5"/>
-      <c r="Y8" s="3"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="1"/>
     </row>
-    <row r="9" spans="1:25" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:27" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="5"/>
+      <c r="C9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="6"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="5"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D3">
